--- a/HLS_man/COP20/COP20_man_holy_sea.xlsx
+++ b/HLS_man/COP20/COP20_man_holy_sea.xlsx
@@ -8,15 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Suze van Santen\Documents\GitHub\TextToDistributiveJustice\HLS_man\COP20\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48B4B5B4-F0AF-4303-9169-3E91E7BD7089}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{609E0AE5-9B46-4A7C-A9AD-E9D2A5FB696A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="41400" yWindow="0" windowWidth="12600" windowHeight="15150" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28800" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="77">
   <si>
     <t>COP20_holy_sea</t>
   </si>
@@ -247,9 +246,6 @@
     <t>egalitarian</t>
   </si>
   <si>
-    <t>prioritarian</t>
-  </si>
-  <si>
     <t>utilitarian</t>
   </si>
   <si>
@@ -259,67 +255,79 @@
     <t>n.a.</t>
   </si>
   <si>
-    <t xml:space="preserve">we all have to solve a problem that is affecting us all. </t>
-  </si>
-  <si>
-    <t>other(human rights), other(vulnerability)</t>
-  </si>
-  <si>
     <t>distant future</t>
   </si>
   <si>
-    <t>libertarian, sufficientarian</t>
-  </si>
-  <si>
-    <t xml:space="preserve">victimization of most vulnerable by actions of others. Based on duty not to do harm. Sufficientarian with link to human rights that form a baseline for all. </t>
-  </si>
-  <si>
     <t>New UNFCCC policy</t>
   </si>
   <si>
-    <t>financial resources, technological resources</t>
-  </si>
-  <si>
     <t>New UNFCCC policy, mitigation, adaptation</t>
   </si>
   <si>
-    <t xml:space="preserve">common binding measures; common indicates egalitarian, binding measures indicates a sufficientarian idea of a set level. </t>
-  </si>
-  <si>
-    <t>egalitarian, sufficientarian</t>
-  </si>
-  <si>
-    <t>collective response to climate change</t>
-  </si>
-  <si>
     <t xml:space="preserve">new UNFCCC policy, moral responsibbility  </t>
   </si>
   <si>
-    <t>egalitarian, utilitarian</t>
-  </si>
-  <si>
-    <t>collective response (egalitarian), ensuring the benefit of present and future generations (utilitarian)</t>
-  </si>
-  <si>
-    <t>UNFCCC agreements and principles, other(equity)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reffering to equity equity in the context of UNFCCC relating to the protection of vulnerable countries and developed countries taking the lead. </t>
-  </si>
-  <si>
-    <t>new UNFCCC policy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">work together for the common good. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">New policies should be accounted for possibilities and circumstances, relates to CBDR, thus prioritarian. Full collaboration of all is an egalitarain principle as it indicates that everyone has to do something. </t>
-  </si>
-  <si>
-    <t>prioritarian, egalitarain</t>
-  </si>
-  <si>
     <t xml:space="preserve">Working together, not described how exactly, hghlighting the integral development of all persons, for the greater good of all. </t>
+  </si>
+  <si>
+    <t>sufficientarian</t>
+  </si>
+  <si>
+    <t>Normative statement about the way a global problem can be solved by acting together, will affect all</t>
+  </si>
+  <si>
+    <t>Prescribes the need to adhere to respect fundamental human rights</t>
+  </si>
+  <si>
+    <t xml:space="preserve">common binding measures and sharing of technical and financial resources; common indicates egalitarian preferences. </t>
+  </si>
+  <si>
+    <t>measures, financial resources, technological resources</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prescribes the need to overcome differences in a collective response. </t>
+  </si>
+  <si>
+    <t>Call to collective action where the the argument is based on ensuring the benefit of present and future generations.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Judgement of the violation of equity, in essence an egalitarian idea. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Specifying the need to work together for the common good, the benefit of all. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prescription of shared responsibility and collaboration. According to CBDR, thus egalitarian </t>
+  </si>
+  <si>
+    <t>general normative statement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">General normative statement highlighting the importance of the inclusion of education in new policy. </t>
+  </si>
+  <si>
+    <t>General normative statement to take on action, suggesting to include all and steer away from overconsumption</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Urge to steer away from current lifestyles. No specific mention of a distribution or reason why. </t>
+  </si>
+  <si>
+    <t>throwaway culture, lifestyle</t>
+  </si>
+  <si>
+    <t>education, new UNFCCC policy</t>
+  </si>
+  <si>
+    <t>new UNFCCC policy, CBDR</t>
+  </si>
+  <si>
+    <t>UNFCCC agreements and principles, equity</t>
+  </si>
+  <si>
+    <t>moral responsibility, exclusion, throwaway culture</t>
+  </si>
+  <si>
+    <t>human rights, vulnerability</t>
   </si>
 </sst>
 </file>
@@ -338,6 +346,7 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -691,21 +700,21 @@
   <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="36.28515625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="28.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.140625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="36.33203125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="13.44140625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.109375" style="3" customWidth="1"/>
     <col min="8" max="8" width="17" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -734,7 +743,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>9</v>
       </c>
@@ -742,7 +751,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="194.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="194.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>10</v>
       </c>
@@ -753,22 +762,22 @@
         <v>46</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E3" t="s">
         <v>47</v>
       </c>
       <c r="F3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="165" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>11</v>
       </c>
@@ -776,25 +785,25 @@
         <v>45</v>
       </c>
       <c r="C4" t="s">
-        <v>54</v>
+        <v>76</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E4" t="s">
         <v>47</v>
       </c>
       <c r="F4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>12</v>
       </c>
@@ -802,7 +811,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>13</v>
       </c>
@@ -810,7 +819,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>14</v>
       </c>
@@ -818,7 +827,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="102" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="102" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>15</v>
       </c>
@@ -826,7 +835,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>16</v>
       </c>
@@ -834,25 +843,25 @@
         <v>45</v>
       </c>
       <c r="C9" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E9" t="s">
         <v>47</v>
       </c>
       <c r="F9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>17</v>
       </c>
@@ -860,7 +869,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>18</v>
       </c>
@@ -868,7 +877,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>19</v>
       </c>
@@ -876,7 +885,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>20</v>
       </c>
@@ -884,7 +893,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>21</v>
       </c>
@@ -892,7 +901,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>22</v>
       </c>
@@ -900,7 +909,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="76.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="76.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>23</v>
       </c>
@@ -908,15 +917,33 @@
         <v>44</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>24</v>
       </c>
       <c r="B17" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="150" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+      <c r="C17" t="s">
+        <v>75</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E17" t="s">
+        <v>47</v>
+      </c>
+      <c r="F17" t="s">
+        <v>51</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>25</v>
       </c>
@@ -924,25 +951,25 @@
         <v>45</v>
       </c>
       <c r="C18" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E18" t="s">
         <v>47</v>
       </c>
       <c r="F18" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G18" s="3" t="s">
         <v>48</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="165" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>26</v>
       </c>
@@ -950,25 +977,25 @@
         <v>45</v>
       </c>
       <c r="C19" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E19" t="s">
         <v>47</v>
       </c>
       <c r="F19" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>27</v>
       </c>
@@ -976,7 +1003,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>28</v>
       </c>
@@ -984,7 +1011,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="107.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>29</v>
       </c>
@@ -992,25 +1019,25 @@
         <v>45</v>
       </c>
       <c r="C22" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E22" t="s">
         <v>47</v>
       </c>
       <c r="F22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>30</v>
       </c>
@@ -1018,7 +1045,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
         <v>31</v>
       </c>
@@ -1026,7 +1053,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
         <v>32</v>
       </c>
@@ -1034,7 +1061,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
         <v>33</v>
       </c>
@@ -1045,22 +1072,22 @@
         <v>46</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E26" t="s">
         <v>47</v>
       </c>
       <c r="F26" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="210" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
         <v>34</v>
       </c>
@@ -1068,25 +1095,25 @@
         <v>45</v>
       </c>
       <c r="C27" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E27" t="s">
         <v>47</v>
       </c>
       <c r="F27" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
         <v>35</v>
       </c>
@@ -1094,23 +1121,59 @@
         <v>44</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
         <v>36</v>
       </c>
       <c r="B29" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+      <c r="C29" t="s">
+        <v>72</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E29" t="s">
+        <v>47</v>
+      </c>
+      <c r="F29" t="s">
+        <v>51</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
         <v>37</v>
       </c>
       <c r="B30" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+      <c r="C30" t="s">
+        <v>71</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E30" t="s">
+        <v>47</v>
+      </c>
+      <c r="F30" t="s">
+        <v>51</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
         <v>38</v>
       </c>
@@ -1118,7 +1181,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
         <v>39</v>
       </c>
@@ -1126,7 +1189,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
         <v>40</v>
       </c>
@@ -1134,7 +1197,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="150" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
         <v>41</v>
       </c>
@@ -1145,22 +1208,22 @@
         <v>46</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E34" t="s">
         <v>47</v>
       </c>
       <c r="F34" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
         <v>42</v>
       </c>
@@ -1168,7 +1231,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
         <v>43</v>
       </c>

--- a/HLS_man/COP20/COP20_man_holy_sea.xlsx
+++ b/HLS_man/COP20/COP20_man_holy_sea.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Suze van Santen\Documents\GitHub\TextToDistributiveJustice\HLS_man\COP20\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Suze van Santen\OneDrive - Delft University of Technology\Documenten\GitHub\TextToDistributiveJustice\HLS_man\COP20\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{609E0AE5-9B46-4A7C-A9AD-E9D2A5FB696A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24437713-6E98-4679-B3FF-B8FD71F7E4EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28800" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="76">
   <si>
     <t>COP20_holy_sea</t>
   </si>
@@ -45,12 +45,6 @@
   </si>
   <si>
     <t>Unit</t>
-  </si>
-  <si>
-    <t>Scale</t>
-  </si>
-  <si>
-    <t>Time</t>
   </si>
   <si>
     <t>Principle</t>
@@ -227,107 +221,109 @@
 Thank you, Mr President.</t>
   </si>
   <si>
-    <t xml:space="preserve">
-</t>
-  </si>
-  <si>
-    <t>no</t>
-  </si>
-  <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>moral responsibility</t>
-  </si>
-  <si>
-    <t>global</t>
-  </si>
-  <si>
     <t>egalitarian</t>
   </si>
   <si>
     <t>utilitarian</t>
   </si>
   <si>
-    <t>measures</t>
-  </si>
-  <si>
     <t>n.a.</t>
   </si>
   <si>
-    <t>distant future</t>
-  </si>
-  <si>
-    <t>New UNFCCC policy</t>
-  </si>
-  <si>
-    <t>New UNFCCC policy, mitigation, adaptation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">new UNFCCC policy, moral responsibbility  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Working together, not described how exactly, hghlighting the integral development of all persons, for the greater good of all. </t>
-  </si>
-  <si>
     <t>sufficientarian</t>
   </si>
   <si>
-    <t>Normative statement about the way a global problem can be solved by acting together, will affect all</t>
-  </si>
-  <si>
-    <t>Prescribes the need to adhere to respect fundamental human rights</t>
-  </si>
-  <si>
-    <t xml:space="preserve">common binding measures and sharing of technical and financial resources; common indicates egalitarian preferences. </t>
-  </si>
-  <si>
-    <t>measures, financial resources, technological resources</t>
-  </si>
-  <si>
-    <t xml:space="preserve">prescribes the need to overcome differences in a collective response. </t>
-  </si>
-  <si>
     <t>Call to collective action where the the argument is based on ensuring the benefit of present and future generations.</t>
   </si>
   <si>
-    <t xml:space="preserve">Judgement of the violation of equity, in essence an egalitarian idea. </t>
-  </si>
-  <si>
     <t xml:space="preserve">Specifying the need to work together for the common good, the benefit of all. </t>
   </si>
   <si>
-    <t xml:space="preserve">Prescription of shared responsibility and collaboration. According to CBDR, thus egalitarian </t>
-  </si>
-  <si>
     <t>general normative statement</t>
   </si>
   <si>
-    <t xml:space="preserve">General normative statement highlighting the importance of the inclusion of education in new policy. </t>
-  </si>
-  <si>
-    <t>General normative statement to take on action, suggesting to include all and steer away from overconsumption</t>
-  </si>
-  <si>
     <t xml:space="preserve">Urge to steer away from current lifestyles. No specific mention of a distribution or reason why. </t>
   </si>
   <si>
-    <t>throwaway culture, lifestyle</t>
-  </si>
-  <si>
-    <t>education, new UNFCCC policy</t>
-  </si>
-  <si>
-    <t>new UNFCCC policy, CBDR</t>
-  </si>
-  <si>
-    <t>UNFCCC agreements and principles, equity</t>
-  </si>
-  <si>
-    <t>moral responsibility, exclusion, throwaway culture</t>
-  </si>
-  <si>
-    <t>human rights, vulnerability</t>
+    <t>responsibiliy</t>
+  </si>
+  <si>
+    <t>Shape</t>
+  </si>
+  <si>
+    <t>cooperation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Normative statement about the way a global problem can be solved by acting together, motivated by the benefit of all. No specific shape prescribed. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prescribes the need to adhere to respect fundamental human rights as a reason to take on action. </t>
+  </si>
+  <si>
+    <t>responsibility</t>
+  </si>
+  <si>
+    <t>financial resources, technological resources</t>
+  </si>
+  <si>
+    <t xml:space="preserve">common binding measures and sharing of technical and financial resources; common indicates egalitarian motivation. </t>
+  </si>
+  <si>
+    <t>proportional to commitments</t>
+  </si>
+  <si>
+    <t>societal issues</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Statement prescribing the need to care and include all. </t>
+  </si>
+  <si>
+    <t>egalitarianism</t>
+  </si>
+  <si>
+    <t>equality</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Normative statement prescribing equality in a collective response, motivated by the global cause of global warming. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNFCCC agreements and principles </t>
+  </si>
+  <si>
+    <t>equity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Advocating for a culture that is motivated by the idea of justice, but accounting for differences. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Judgement of the violation of equity, motivated by egalitarian idea. Prescribes distribution of responsibilty, but no specific shape presented. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prescription of shared responsibility and collaboration. According to CBDR, thus egalitarian and equity based. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">General normative statement highlighting the importance of the inclusion of education in new policy. No focus on specific distribution. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prescribing cooperation and involvement of all, thus equality based. Motivation is utilitarian. </t>
+  </si>
+  <si>
+    <t>education</t>
+  </si>
+  <si>
+    <t>adaptation, mitigation</t>
+  </si>
+  <si>
+    <t>UNFCCC agreements and principles</t>
+  </si>
+  <si>
+    <t>new UNFCCC policy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">moral responsibbility  </t>
+  </si>
+  <si>
+    <t>urgency</t>
   </si>
 </sst>
 </file>
@@ -697,24 +693,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I36"/>
+  <dimension ref="A1:H35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="36.33203125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="13.44140625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="28.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.109375" style="3" customWidth="1"/>
-    <col min="8" max="8" width="17" style="3" customWidth="1"/>
+    <col min="4" max="5" width="13.44140625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="11.109375" style="3" customWidth="1"/>
+    <col min="7" max="7" width="17" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -727,513 +721,481 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="B2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="194.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" ht="194.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
+      <c r="G4" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="102" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9" t="s">
+        <v>71</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="76.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17" t="s">
+        <v>58</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18" t="s">
+        <v>73</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19" t="s">
+        <v>74</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G19" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C3" t="s">
+    </row>
+    <row r="20" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+      <c r="C21" t="s">
+        <v>63</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22">
+        <v>2</v>
+      </c>
+      <c r="C22" t="s">
+        <v>72</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+      <c r="A26" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26">
+        <v>2</v>
+      </c>
+      <c r="C26" t="s">
+        <v>51</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G26" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E3" t="s">
+    </row>
+    <row r="27" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A27" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B27">
+        <v>2</v>
+      </c>
+      <c r="C27" t="s">
+        <v>51</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A29" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B29">
+        <v>2</v>
+      </c>
+      <c r="C29" t="s">
+        <v>70</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F29" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G29" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A30" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B30">
+        <v>2</v>
+      </c>
+      <c r="C30" t="s">
+        <v>58</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A31" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A32" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A33" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A34" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B34">
+        <v>2</v>
+      </c>
+      <c r="C34" t="s">
         <v>51</v>
       </c>
-      <c r="G3" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C4" t="s">
-        <v>76</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E4" t="s">
-        <v>47</v>
-      </c>
-      <c r="F4" t="s">
-        <v>52</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="102" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" t="s">
-        <v>45</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="D34" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="E34" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="E9" t="s">
-        <v>47</v>
-      </c>
-      <c r="F9" t="s">
-        <v>51</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="72" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="76.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A17" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B17" t="s">
-        <v>45</v>
-      </c>
-      <c r="C17" t="s">
-        <v>75</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="E17" t="s">
-        <v>47</v>
-      </c>
-      <c r="F17" t="s">
-        <v>51</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="H17" s="3" t="s">
+      <c r="F34" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G34" s="3" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B18" t="s">
-        <v>45</v>
-      </c>
-      <c r="C18" t="s">
-        <v>53</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E18" t="s">
-        <v>47</v>
-      </c>
-      <c r="F18" t="s">
-        <v>51</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A19" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B19" t="s">
-        <v>45</v>
-      </c>
-      <c r="C19" t="s">
-        <v>55</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E19" t="s">
-        <v>47</v>
-      </c>
-      <c r="F19" t="s">
-        <v>52</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="H19" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A20" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B20" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A21" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B21" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B22" t="s">
-        <v>45</v>
-      </c>
-      <c r="C22" t="s">
-        <v>74</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E22" t="s">
-        <v>47</v>
-      </c>
-      <c r="F22" t="s">
-        <v>51</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="72" x14ac:dyDescent="0.3">
-      <c r="A23" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B23" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A24" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B24" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A25" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B25" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="72" x14ac:dyDescent="0.3">
-      <c r="A26" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B26" t="s">
-        <v>45</v>
-      </c>
-      <c r="C26" t="s">
-        <v>46</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E26" t="s">
-        <v>47</v>
-      </c>
-      <c r="F26" t="s">
-        <v>51</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A27" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B27" t="s">
-        <v>45</v>
-      </c>
-      <c r="C27" t="s">
-        <v>73</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E27" t="s">
-        <v>47</v>
-      </c>
-      <c r="F27" t="s">
-        <v>51</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="72" x14ac:dyDescent="0.3">
-      <c r="A28" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B28" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A29" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B29" t="s">
-        <v>45</v>
-      </c>
-      <c r="C29" t="s">
-        <v>72</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="E29" t="s">
-        <v>47</v>
-      </c>
-      <c r="F29" t="s">
-        <v>51</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A30" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B30" t="s">
-        <v>45</v>
-      </c>
-      <c r="C30" t="s">
-        <v>71</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="E30" t="s">
-        <v>47</v>
-      </c>
-      <c r="F30" t="s">
-        <v>51</v>
-      </c>
-      <c r="G30" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="H30" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A31" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B31" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A32" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B32" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A33" s="3" t="s">
+    <row r="35" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A35" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B33" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A34" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B34" t="s">
-        <v>45</v>
-      </c>
-      <c r="C34" t="s">
-        <v>46</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E34" t="s">
-        <v>47</v>
-      </c>
-      <c r="F34" t="s">
-        <v>51</v>
-      </c>
-      <c r="G34" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="H34" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A35" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B35" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A36" s="3" t="s">
-        <v>43</v>
+      <c r="B35">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/HLS_man/COP20/COP20_man_holy_sea.xlsx
+++ b/HLS_man/COP20/COP20_man_holy_sea.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Suze van Santen\OneDrive - Delft University of Technology\Documenten\GitHub\TextToDistributiveJustice\HLS_man\COP20\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24437713-6E98-4679-B3FF-B8FD71F7E4EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F22FAA7-0B9B-44D6-8051-1A614B5B5AF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="76">
   <si>
     <t>COP20_holy_sea</t>
   </si>
@@ -696,8 +696,8 @@
   <dimension ref="A1:H35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
+      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1012,6 +1012,9 @@
       <c r="D22" s="3" t="s">
         <v>54</v>
       </c>
+      <c r="E22" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="F22" s="3" t="s">
         <v>41</v>
       </c>
